--- a/Q4/results/Ans_label.xlsx
+++ b/Q4/results/Ans_label.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobby\Desktop\RAG\LLM_Vis\data\Aanalysis\vistroubleshooting.github.io\Q4\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A385E707-9D4B-4481-B6F4-123459F37B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AD5C1C-A7E9-4FC1-AB4A-D1D3820F2E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{62C725FF-35E5-415B-9B27-A8C386C86E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -144,10 +147,6 @@
   </si>
   <si>
     <t>Q_Category(Operation)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_catergory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -950,12 +949,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Data Transformation and Processing</t>
+    <t>Main_Catergory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>View Composition and Layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Data Transformation</t>
+  </si>
+  <si>
+    <t>Composition and Layout</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1082,16 +1083,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{DD94C697-B002-4D42-B245-08722202068E}"/>
@@ -1430,17 +1425,16 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="29.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="16.9140625" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" customWidth="1"/>
@@ -1452,19 +1446,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>72</v>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>26</v>
@@ -1498,11 +1492,11 @@
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>30</v>
+      <c r="D2" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="5">
         <v>3</v>
@@ -1530,11 +1524,11 @@
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>31</v>
+      <c r="D3" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="5">
         <v>4</v>
@@ -1557,16 +1551,16 @@
         <v>69230751</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>32</v>
+      <c r="D4" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="5">
         <v>3</v>
@@ -1594,11 +1588,11 @@
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>33</v>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="5">
         <v>3</v>
@@ -1626,11 +1620,11 @@
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>34</v>
+      <c r="D6" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="5">
         <v>4</v>
@@ -1661,11 +1655,11 @@
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>35</v>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="5">
         <v>4</v>
@@ -1693,11 +1687,11 @@
       <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>36</v>
+      <c r="D8" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="5">
         <v>4</v>
@@ -1723,16 +1717,16 @@
         <v>74796097</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>37</v>
+      <c r="D9" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="5">
         <v>4</v>
@@ -1760,11 +1754,11 @@
       <c r="C10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>38</v>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="5">
         <v>4</v>
@@ -1792,11 +1786,11 @@
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>39</v>
+      <c r="D11" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="5">
         <v>3</v>
@@ -1824,11 +1818,11 @@
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>40</v>
+      <c r="D12" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="5">
         <v>4</v>
@@ -1856,11 +1850,11 @@
       <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>41</v>
+      <c r="D13" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="5">
         <v>4</v>
@@ -1888,11 +1882,11 @@
       <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>42</v>
+      <c r="D14" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14" s="5">
         <v>4</v>
@@ -1920,11 +1914,11 @@
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>43</v>
+      <c r="D15" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="5">
         <v>4</v>
@@ -1955,11 +1949,11 @@
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>35</v>
+      <c r="D16" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="5">
         <v>4</v>
@@ -1987,11 +1981,11 @@
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>44</v>
+      <c r="D17" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="5">
         <v>4</v>
@@ -2019,11 +2013,11 @@
       <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>45</v>
+      <c r="D18" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" s="5">
         <v>4</v>
@@ -2051,11 +2045,11 @@
       <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>46</v>
+      <c r="D19" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="5">
         <v>4</v>
@@ -2081,16 +2075,16 @@
         <v>72543952</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>47</v>
+      <c r="D20" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="5">
         <v>3</v>
@@ -2118,11 +2112,11 @@
       <c r="C21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>48</v>
+      <c r="D21" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="5">
         <v>3</v>
@@ -2150,11 +2144,11 @@
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>48</v>
+      <c r="D22" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="5">
         <v>4</v>
@@ -2182,11 +2176,11 @@
       <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>49</v>
+      <c r="D23" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="5">
         <v>3</v>
@@ -2214,11 +2208,11 @@
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>50</v>
+      <c r="D24" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="5">
         <v>4</v>
@@ -2246,11 +2240,11 @@
       <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>50</v>
+      <c r="D25" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="5">
         <v>4</v>
@@ -2284,11 +2278,11 @@
       <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>49</v>
+      <c r="D26" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" s="5">
         <v>3</v>
@@ -2316,11 +2310,11 @@
       <c r="C27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>51</v>
+      <c r="D27" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F27" s="5">
         <v>4</v>
@@ -2354,11 +2348,11 @@
       <c r="C28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>52</v>
+      <c r="D28" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="6">
         <v>4</v>
@@ -2388,11 +2382,11 @@
       <c r="C29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>53</v>
+      <c r="D29" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29" s="5">
         <v>4</v>
@@ -2420,11 +2414,11 @@
       <c r="C30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>54</v>
+      <c r="D30" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="5">
         <v>4</v>
@@ -2452,11 +2446,11 @@
       <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>55</v>
+      <c r="D31" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="5">
         <v>4</v>
@@ -2487,11 +2481,11 @@
       <c r="C32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>56</v>
+      <c r="D32" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32" s="5">
         <v>4</v>
@@ -2519,11 +2513,11 @@
       <c r="C33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>57</v>
+      <c r="D33" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" s="5">
         <v>4</v>
@@ -2551,11 +2545,11 @@
       <c r="C34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>58</v>
+      <c r="D34" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34" s="5">
         <v>4</v>
@@ -2583,11 +2577,11 @@
       <c r="C35" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>59</v>
+      <c r="D35" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F35" s="5">
         <v>4</v>
@@ -2615,11 +2609,11 @@
       <c r="C36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>60</v>
+      <c r="D36" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36" s="5">
         <v>4</v>
@@ -2647,11 +2641,11 @@
       <c r="C37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>61</v>
+      <c r="D37" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="6">
         <v>2</v>
@@ -2679,11 +2673,11 @@
       <c r="C38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>62</v>
+      <c r="D38" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F38" s="5">
         <v>4</v>
@@ -2711,11 +2705,11 @@
       <c r="C39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>49</v>
+      <c r="D39" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F39" s="5">
         <v>4</v>
@@ -2743,11 +2737,11 @@
       <c r="C40" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>63</v>
+      <c r="D40" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" s="5">
         <v>2</v>
@@ -2781,11 +2775,11 @@
       <c r="C41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>64</v>
+      <c r="D41" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F41" s="5">
         <v>4</v>
@@ -2816,11 +2810,11 @@
       <c r="C42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>65</v>
+      <c r="D42" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42" s="5">
         <v>3</v>
@@ -2851,11 +2845,11 @@
       <c r="C43" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>66</v>
+      <c r="D43" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F43" s="5">
         <v>4</v>
@@ -2883,11 +2877,11 @@
       <c r="C44" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>67</v>
+      <c r="D44" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F44" s="5">
         <v>4</v>
@@ -2915,11 +2909,11 @@
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>68</v>
+      <c r="D45" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F45" s="5">
         <v>4</v>
@@ -2942,16 +2936,16 @@
         <v>76416165</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>69</v>
+      <c r="D46" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F46" s="5">
         <v>4</v>
@@ -2979,11 +2973,11 @@
       <c r="C47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>70</v>
+      <c r="D47" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F47" s="5">
         <v>4</v>
@@ -3017,11 +3011,11 @@
       <c r="C48" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>71</v>
+      <c r="D48" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F48" s="5">
         <v>4</v>
@@ -3043,6 +3037,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L48" xr:uid="{890E568B-EDFB-4D87-8E41-1C957F0F8704}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Q4/results/Ans_label.xlsx
+++ b/Q4/results/Ans_label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobby\Desktop\RAG\LLM_Vis\data\Aanalysis\vistroubleshooting.github.io\Q4\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AD5C1C-A7E9-4FC1-AB4A-D1D3820F2E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9088AA1E-E307-4A12-9103-18699F2B7366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{62C725FF-35E5-415B-9B27-A8C386C86E37}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{62C725FF-35E5-415B-9B27-A8C386C86E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Question ID</t>
-  </si>
-  <si>
     <t>[gridColor][condition]</t>
   </si>
   <si>
@@ -183,12 +180,6 @@
     <t>[transform][calculate], [layer]</t>
   </si>
   <si>
-    <t>[transform][windown], [transform][bin]</t>
-  </si>
-  <si>
-    <t>[transform][windown], [transform][filter]</t>
-  </si>
-  <si>
     <t>[sort]</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
   </si>
   <si>
     <t>[transform][pivot], [encoding][tooltip]</t>
-  </si>
-  <si>
-    <t>[x][scale][type], [x][axis][format]</t>
   </si>
   <si>
     <t>[config][axisLeft][format]</t>
@@ -453,12 +441,6 @@
         }
       }
     }
-  ]</t>
-  </si>
-  <si>
-    <t>"transform": [
-    {"bin": {"maxbins": 50}, "field": "Horsepower", "as": "Horsepower"},
-    {"window": [{"op": "count", "as": "index"}], "groupby": ["Horsepower"]}
   ]</t>
   </si>
   <si>
@@ -957,6 +939,29 @@
   </si>
   <si>
     <t>Composition and Layout</t>
+  </si>
+  <si>
+    <t>[x][axis][format]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[transform][window], [transform][bin]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[transform][window], [transform][filter]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"transform": [
+    {"bin": {"maxbins": 50}, "field": "Horsepower", "as": "Horsepower"},
+    {"window": [{"op": "count", "as": "index"}], "groupby": ["Horsepower"]}
+  ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Question ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1425,8 +1430,8 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1446,19 +1451,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>26</v>
@@ -1493,10 +1498,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F2" s="5">
         <v>3</v>
@@ -1525,10 +1530,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F3" s="5">
         <v>4</v>
@@ -1551,16 +1556,16 @@
         <v>69230751</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" s="5">
         <v>3</v>
@@ -1589,10 +1594,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F5" s="5">
         <v>3</v>
@@ -1615,16 +1620,16 @@
         <v>60929534</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F6" s="5">
         <v>4</v>
@@ -1656,10 +1661,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F7" s="5">
         <v>4</v>
@@ -1682,16 +1687,16 @@
         <v>62764869</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F8" s="5">
         <v>4</v>
@@ -1717,16 +1722,16 @@
         <v>74796097</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F9" s="5">
         <v>4</v>
@@ -1755,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F10" s="5">
         <v>4</v>
@@ -1781,16 +1786,16 @@
         <v>76362013</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F11" s="5">
         <v>3</v>
@@ -1813,16 +1818,16 @@
         <v>68658805</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="F12" s="5">
         <v>4</v>
@@ -1845,16 +1850,16 @@
         <v>60151507</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F13" s="5">
         <v>4</v>
@@ -1877,16 +1882,16 @@
         <v>70184042</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F14" s="5">
         <v>4</v>
@@ -1915,10 +1920,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F15" s="5">
         <v>4</v>
@@ -1944,16 +1949,16 @@
         <v>45160007</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F16" s="5">
         <v>4</v>
@@ -1976,16 +1981,16 @@
         <v>64790338</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F17" s="5">
         <v>4</v>
@@ -2008,16 +2013,16 @@
         <v>61654169</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F18" s="5">
         <v>4</v>
@@ -2040,16 +2045,16 @@
         <v>61738703</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F19" s="5">
         <v>4</v>
@@ -2075,16 +2080,16 @@
         <v>72543952</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F20" s="5">
         <v>3</v>
@@ -2113,10 +2118,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F21" s="5">
         <v>3</v>
@@ -2145,10 +2150,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F22" s="5">
         <v>4</v>
@@ -2171,16 +2176,16 @@
         <v>59112609</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F23" s="5">
         <v>3</v>
@@ -2203,16 +2208,16 @@
         <v>69713124</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F24" s="5">
         <v>4</v>
@@ -2235,16 +2240,16 @@
         <v>60673598</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F25" s="5">
         <v>4</v>
@@ -2273,16 +2278,16 @@
         <v>56425430</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F26" s="5">
         <v>3</v>
@@ -2311,10 +2316,10 @@
         <v>10</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F27" s="5">
         <v>4</v>
@@ -2343,16 +2348,16 @@
         <v>59467415</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F28" s="6">
         <v>4</v>
@@ -2383,10 +2388,10 @@
         <v>9</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F29" s="5">
         <v>4</v>
@@ -2415,10 +2420,10 @@
         <v>9</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F30" s="5">
         <v>4</v>
@@ -2441,16 +2446,16 @@
         <v>68346456</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F31" s="5">
         <v>4</v>
@@ -2476,16 +2481,16 @@
         <v>78518667</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F32" s="5">
         <v>4</v>
@@ -2514,10 +2519,10 @@
         <v>9</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F33" s="5">
         <v>4</v>
@@ -2540,16 +2545,16 @@
         <v>63445974</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F34" s="5">
         <v>4</v>
@@ -2578,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F35" s="5">
         <v>4</v>
@@ -2610,10 +2615,10 @@
         <v>10</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F36" s="5">
         <v>4</v>
@@ -2642,10 +2647,10 @@
         <v>9</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F37" s="6">
         <v>2</v>
@@ -2668,16 +2673,16 @@
         <v>77408117</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F38" s="5">
         <v>4</v>
@@ -2700,16 +2705,16 @@
         <v>54610955</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F39" s="5">
         <v>4</v>
@@ -2738,10 +2743,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F40" s="5">
         <v>2</v>
@@ -2770,16 +2775,16 @@
         <v>61928545</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F41" s="5">
         <v>4</v>
@@ -2805,16 +2810,16 @@
         <v>64899750</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F42" s="5">
         <v>3</v>
@@ -2846,10 +2851,10 @@
         <v>6</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F43" s="5">
         <v>4</v>
@@ -2872,16 +2877,16 @@
         <v>77716460</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F44" s="5">
         <v>4</v>
@@ -2910,10 +2915,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F45" s="5">
         <v>4</v>
@@ -2936,16 +2941,16 @@
         <v>76416165</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F46" s="5">
         <v>4</v>
@@ -2974,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F47" s="5">
         <v>4</v>
@@ -3012,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F48" s="5">
         <v>4</v>
